--- a/case/UI.xlsx
+++ b/case/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonja\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B702A-D408-4AEB-9EE8-EB01B3410AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67332CC-8332-42A8-98D2-7FC06B701114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸡巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="su"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,11 +145,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+    <t>//*[@id="$&lt;搜索按钮&gt;"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,13 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,7 +536,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2">
@@ -562,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -607,7 +600,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -618,66 +611,38 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,13 +655,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,7 +681,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -730,13 +695,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>3</v>

--- a/case/UI.xlsx
+++ b/case/UI.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67332CC-8332-42A8-98D2-7FC06B701114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C589D59-5FD7-476A-B990-D4B4E9D10DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
-    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
-    <sheet name="对象库" sheetId="3" r:id="rId3"/>
+    <sheet name="组件库" sheetId="4" r:id="rId2"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId3"/>
+    <sheet name="对象库" sheetId="3" r:id="rId4"/>
+    <sheet name="用例调试" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,16 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否选用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,27 +127,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="$&lt;搜索按钮&gt;"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_fonds1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="$&lt;搜索按钮&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大</t>
+    <t>输入框1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;value&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +204,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,23 +224,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,66 +519,116 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>443</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B17827C6-E354-45D3-AF08-A29DD6F606EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24639536-CA79-4C20-83B3-B299054C1756}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,19 +654,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,45 +674,153 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -650,44 +828,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E52E6D-A2A4-42FE-827D-8AEFB87510F7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -695,13 +874,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -712,4 +891,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A314C6EF-59C9-47E6-AF3E-3A341911A0D3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/case/UI.xlsx
+++ b/case/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C589D59-5FD7-476A-B990-D4B4E9D10DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE571F18-7F0F-4884-B148-C5CAEEF994F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>$&lt;value&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索记录第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="1"]/h3/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,10 +841,25 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -830,7 +869,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E52E6D-A2A4-42FE-827D-8AEFB87510F7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -838,7 +877,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -883,6 +922,20 @@
         <v>25</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>

--- a/case/UI.xlsx
+++ b/case/UI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE571F18-7F0F-4884-B148-C5CAEEF994F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9269BD26-B318-47EB-A21D-61CE7257E2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add_fonds1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$&lt;value&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索记录第一条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,15 +191,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getText</t>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,16 +618,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24639536-CA79-4C20-83B3-B299054C1756}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -641,18 +649,75 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -719,13 +784,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -749,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -764,102 +826,12 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -927,13 +899,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4">
         <v>3</v>

--- a/case/UI.xlsx
+++ b/case/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9269BD26-B318-47EB-A21D-61CE7257E2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889F02F-8602-4AA2-915D-1250BCB0780A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="kw"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="$&lt;搜索按钮&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getAttr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,27 +147,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索记录第一条</t>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/section/div/div[2]/form/div[1]/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/section/div/div[2]/form/div[2]/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,35 +179,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="1"]/h3/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrome1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa1</t>
+    <t>内容管理-所有栏目-新闻-财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/section/main/section/main/div[2]/section/aside/div[2]/section/div/div[1]/div[2]/div[1]/div[2]/div[1]/div[1]/span[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/section/main/section/aside[1]/ul/li/span[contains(text(),"$&lt;菜单名称&gt;")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://demo.jeecms.com/jeecms/index.html#/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#app &gt; section &gt; div &gt; div.form-wrap &gt; form &gt; div:nth-child(3) &gt; div &gt; div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +252,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,21 +280,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,7 +577,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,13 +585,14 @@
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -591,56 +618,47 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>443</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="/login" xr:uid="{EF63D17A-4C63-4312-A78E-389803B8220E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24639536-CA79-4C20-83B3-B299054C1756}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -650,8 +668,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
+      <c r="A2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -661,50 +679,55 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,13 +766,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -759,79 +782,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,7 +813,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E52E6D-A2A4-42FE-827D-8AEFB87510F7}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -849,9 +821,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="88.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,13 +843,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -885,13 +857,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -899,16 +871,38 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -934,13 +928,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -950,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -961,33 +955,33 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
